--- a/Заметки/pfvtnrb.xlsx
+++ b/Заметки/pfvtnrb.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Блок мой профиль:</t>
   </si>
@@ -49,6 +49,21 @@
   </si>
   <si>
     <t>"Создать новое объявление"</t>
+  </si>
+  <si>
+    <t>Добавление</t>
+  </si>
+  <si>
+    <t>Изменение</t>
+  </si>
+  <si>
+    <t>Удаление</t>
+  </si>
+  <si>
+    <t>регистрация</t>
+  </si>
+  <si>
+    <t>разбивка товара по категориям</t>
   </si>
 </sst>
 </file>
@@ -387,15 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -447,6 +462,31 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Заметки/pfvtnrb.xlsx
+++ b/Заметки/pfvtnrb.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Блок мой профиль:</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>разбивка товара по категориям</t>
+  </si>
+  <si>
+    <t>для update надо добавить в миграциях:</t>
+  </si>
+  <si>
+    <t>$table-&gt;timestamps();</t>
+  </si>
+  <si>
+    <t>так же в миграциях сделать для некоторых полей (в которых заполнение не обязательно) значения по умолчанию</t>
+  </si>
+  <si>
+    <t>$table-&gt;string('old_price')-&gt;default("")-&gt;change();</t>
   </si>
 </sst>
 </file>
@@ -99,8 +111,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -402,16 +417,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.28515625" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -464,29 +479,45 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Заметки/pfvtnrb.xlsx
+++ b/Заметки/pfvtnrb.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Блок мой профиль:</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>$table-&gt;string('old_price')-&gt;default("")-&gt;change();</t>
+  </si>
+  <si>
+    <t>Лого сделать редирект на католог</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>good_id</t>
   </si>
 </sst>
 </file>
@@ -417,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,6 +532,26 @@
         <v>19</v>
       </c>
     </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
